--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col4a6-Cd93.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Col4a6</t>
+  </si>
+  <si>
+    <t>Cd93</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Col4a6</t>
-  </si>
-  <si>
-    <t>Cd93</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -534,25 +534,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.320146</v>
+        <v>0.341576</v>
       </c>
       <c r="H2">
-        <v>0.960438</v>
+        <v>0.683152</v>
       </c>
       <c r="I2">
-        <v>0.2524412221467142</v>
+        <v>0.1874396718477769</v>
       </c>
       <c r="J2">
-        <v>0.3254046475729954</v>
+        <v>0.172304451477453</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N2">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O2">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P2">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q2">
-        <v>75.266841955936</v>
+        <v>75.23457932478</v>
       </c>
       <c r="R2">
-        <v>451.6010517356161</v>
+        <v>300.93831729912</v>
       </c>
       <c r="S2">
-        <v>0.1055394972988195</v>
+        <v>0.0961473111167058</v>
       </c>
       <c r="T2">
-        <v>0.1054912430054263</v>
+        <v>0.07129482871068649</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.320146</v>
+        <v>0.341576</v>
       </c>
       <c r="H3">
-        <v>0.960438</v>
+        <v>0.683152</v>
       </c>
       <c r="I3">
-        <v>0.2524412221467142</v>
+        <v>0.1874396718477769</v>
       </c>
       <c r="J3">
-        <v>0.3254046475729954</v>
+        <v>0.172304451477453</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.184044</v>
       </c>
       <c r="O3">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P3">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q3">
-        <v>0.019640316808</v>
+        <v>0.020955004448</v>
       </c>
       <c r="R3">
-        <v>0.176762851272</v>
+        <v>0.125730026688</v>
       </c>
       <c r="S3">
-        <v>2.75397387327528E-05</v>
+        <v>2.677980458183019E-05</v>
       </c>
       <c r="T3">
-        <v>4.129072070625552E-05</v>
+        <v>2.978650507838543E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.320146</v>
+        <v>0.341576</v>
       </c>
       <c r="H4">
-        <v>0.960438</v>
+        <v>0.683152</v>
       </c>
       <c r="I4">
-        <v>0.2524412221467142</v>
+        <v>0.1874396718477769</v>
       </c>
       <c r="J4">
-        <v>0.3254046475729954</v>
+        <v>0.172304451477453</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N4">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O4">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P4">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q4">
-        <v>31.09117098431533</v>
+        <v>24.49096857201867</v>
       </c>
       <c r="R4">
-        <v>279.8205388588379</v>
+        <v>146.945811432112</v>
       </c>
       <c r="S4">
-        <v>0.04359617689336963</v>
+        <v>0.03129865011510422</v>
       </c>
       <c r="T4">
-        <v>0.06536436606872272</v>
+        <v>0.03481270364581751</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.320146</v>
+        <v>0.341576</v>
       </c>
       <c r="H5">
-        <v>0.960438</v>
+        <v>0.683152</v>
       </c>
       <c r="I5">
-        <v>0.2524412221467142</v>
+        <v>0.1874396718477769</v>
       </c>
       <c r="J5">
-        <v>0.3254046475729954</v>
+        <v>0.172304451477453</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N5">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O5">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P5">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q5">
-        <v>0.482937999978</v>
+        <v>1.124022264532</v>
       </c>
       <c r="R5">
-        <v>2.897627999868</v>
+        <v>4.496089058128</v>
       </c>
       <c r="S5">
-        <v>0.0006771777906400611</v>
+        <v>0.001436463383459989</v>
       </c>
       <c r="T5">
-        <v>0.0006768681744619928</v>
+        <v>0.001065161466124024</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.320146</v>
+        <v>0.341576</v>
       </c>
       <c r="H6">
-        <v>0.960438</v>
+        <v>0.683152</v>
       </c>
       <c r="I6">
-        <v>0.2524412221467142</v>
+        <v>0.1874396718477769</v>
       </c>
       <c r="J6">
-        <v>0.3254046475729954</v>
+        <v>0.172304451477453</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N6">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O6">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P6">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q6">
-        <v>51.10910704252732</v>
+        <v>9.430009549903998</v>
       </c>
       <c r="R6">
-        <v>459.981963382746</v>
+        <v>56.58005729942399</v>
       </c>
       <c r="S6">
-        <v>0.0716654150019706</v>
+        <v>0.01205124120006207</v>
       </c>
       <c r="T6">
-        <v>0.1074489726957725</v>
+        <v>0.0134042933774823</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,25 +844,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.320146</v>
+        <v>0.341576</v>
       </c>
       <c r="H7">
-        <v>0.960438</v>
+        <v>0.683152</v>
       </c>
       <c r="I7">
-        <v>0.2524412221467142</v>
+        <v>0.1874396718477769</v>
       </c>
       <c r="J7">
-        <v>0.3254046475729954</v>
+        <v>0.172304451477453</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N7">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O7">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P7">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q7">
-        <v>22.06198705784333</v>
+        <v>36.369660180616</v>
       </c>
       <c r="R7">
-        <v>198.55788352059</v>
+        <v>218.217961083696</v>
       </c>
       <c r="S7">
-        <v>0.03093541542318175</v>
+        <v>0.04647922622786299</v>
       </c>
       <c r="T7">
-        <v>0.04638190690790576</v>
+        <v>0.05169767777226437</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8530815</v>
+        <v>0.320146</v>
       </c>
       <c r="H8">
-        <v>1.706163</v>
+        <v>0.960438</v>
       </c>
       <c r="I8">
-        <v>0.672671020255609</v>
+        <v>0.1756799692700259</v>
       </c>
       <c r="J8">
-        <v>0.5780626856882846</v>
+        <v>0.2422414671524083</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N8">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O8">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P8">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q8">
-        <v>200.560839229704</v>
+        <v>70.51446715375499</v>
       </c>
       <c r="R8">
-        <v>802.2433569188162</v>
+        <v>423.08680292253</v>
       </c>
       <c r="S8">
-        <v>0.2812272921258515</v>
+        <v>0.090115163432937</v>
       </c>
       <c r="T8">
-        <v>0.1873991404337054</v>
+        <v>0.100232836465727</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8530815</v>
+        <v>0.320146</v>
       </c>
       <c r="H9">
-        <v>1.706163</v>
+        <v>0.960438</v>
       </c>
       <c r="I9">
-        <v>0.672671020255609</v>
+        <v>0.1756799692700259</v>
       </c>
       <c r="J9">
-        <v>0.5780626856882846</v>
+        <v>0.2422414671524083</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +1001,22 @@
         <v>0.184044</v>
       </c>
       <c r="O9">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P9">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q9">
-        <v>0.05233484386200001</v>
+        <v>0.019640316808</v>
       </c>
       <c r="R9">
-        <v>0.3140090631720001</v>
+        <v>0.176762851272</v>
       </c>
       <c r="S9">
-        <v>7.33841485689181E-05</v>
+        <v>2.509967713672684E-05</v>
       </c>
       <c r="T9">
-        <v>7.335059619917897E-05</v>
+        <v>4.1876612180707E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8530815</v>
+        <v>0.320146</v>
       </c>
       <c r="H10">
-        <v>1.706163</v>
+        <v>0.960438</v>
       </c>
       <c r="I10">
-        <v>0.672671020255609</v>
+        <v>0.1756799692700259</v>
       </c>
       <c r="J10">
-        <v>0.5780626856882846</v>
+        <v>0.2422414671524083</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N10">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O10">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P10">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q10">
-        <v>82.8475220057605</v>
+        <v>22.95443949357533</v>
       </c>
       <c r="R10">
-        <v>497.085132034563</v>
+        <v>206.589955442178</v>
       </c>
       <c r="S10">
-        <v>0.1161691602533254</v>
+        <v>0.02933501662807151</v>
       </c>
       <c r="T10">
-        <v>0.1161160459133335</v>
+        <v>0.0489429050404327</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8530815</v>
+        <v>0.320146</v>
       </c>
       <c r="H11">
-        <v>1.706163</v>
+        <v>0.960438</v>
       </c>
       <c r="I11">
-        <v>0.672671020255609</v>
+        <v>0.1756799692700259</v>
       </c>
       <c r="J11">
-        <v>0.5780626856882846</v>
+        <v>0.2422414671524083</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N11">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O11">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P11">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q11">
-        <v>1.2868674711795</v>
+        <v>1.053502681397</v>
       </c>
       <c r="R11">
-        <v>5.147469884718</v>
+        <v>6.321016088382</v>
       </c>
       <c r="S11">
-        <v>0.001804451236017034</v>
+        <v>0.001346341681971747</v>
       </c>
       <c r="T11">
-        <v>0.001202417475302515</v>
+        <v>0.00149750209060535</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8530815</v>
+        <v>0.320146</v>
       </c>
       <c r="H12">
-        <v>1.706163</v>
+        <v>0.960438</v>
       </c>
       <c r="I12">
-        <v>0.672671020255609</v>
+        <v>0.1756799692700259</v>
       </c>
       <c r="J12">
-        <v>0.5780626856882846</v>
+        <v>0.2422414671524083</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N12">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O12">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P12">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q12">
-        <v>136.1885942648035</v>
+        <v>8.838383953683998</v>
       </c>
       <c r="R12">
-        <v>817.131565588821</v>
+        <v>79.54545558315598</v>
       </c>
       <c r="S12">
-        <v>0.1909642467124486</v>
+        <v>0.0112951632000933</v>
       </c>
       <c r="T12">
-        <v>0.1908769349000531</v>
+        <v>0.0188449901674625</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,25 +1216,25 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8530815</v>
+        <v>0.320146</v>
       </c>
       <c r="H13">
-        <v>1.706163</v>
+        <v>0.960438</v>
       </c>
       <c r="I13">
-        <v>0.672671020255609</v>
+        <v>0.1756799692700259</v>
       </c>
       <c r="J13">
-        <v>0.5780626856882846</v>
+        <v>0.2422414671524083</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N13">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O13">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P13">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q13">
-        <v>58.7877812382025</v>
+        <v>34.087878621986</v>
       </c>
       <c r="R13">
-        <v>352.726687429215</v>
+        <v>306.790907597874</v>
       </c>
       <c r="S13">
-        <v>0.08243248577939759</v>
+        <v>0.04356318464981563</v>
       </c>
       <c r="T13">
-        <v>0.08239479636969095</v>
+        <v>0.07268135677600014</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,25 +1278,25 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.09497266666666666</v>
+        <v>1.160603</v>
       </c>
       <c r="H14">
-        <v>0.284918</v>
+        <v>2.321206</v>
       </c>
       <c r="I14">
-        <v>0.07488775759767681</v>
+        <v>0.6368803588821972</v>
       </c>
       <c r="J14">
-        <v>0.09653266673871995</v>
+        <v>0.5854540813701385</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N14">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O14">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P14">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q14">
-        <v>22.32822740916267</v>
+        <v>255.6311874021525</v>
       </c>
       <c r="R14">
-        <v>133.969364454976</v>
+        <v>1022.52474960861</v>
       </c>
       <c r="S14">
-        <v>0.03130873881644108</v>
+        <v>0.3266882267020578</v>
       </c>
       <c r="T14">
-        <v>0.03129442397595684</v>
+        <v>0.2422447481266508</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,25 +1340,25 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.09497266666666666</v>
+        <v>1.160603</v>
       </c>
       <c r="H15">
-        <v>0.284918</v>
+        <v>2.321206</v>
       </c>
       <c r="I15">
-        <v>0.07488775759767681</v>
+        <v>0.6368803588821972</v>
       </c>
       <c r="J15">
-        <v>0.09653266673871995</v>
+        <v>0.5854540813701385</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.184044</v>
       </c>
       <c r="O15">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P15">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q15">
-        <v>0.005826383154666667</v>
+        <v>0.07120067284400002</v>
       </c>
       <c r="R15">
-        <v>0.05243744839200001</v>
+        <v>0.4272040370640001</v>
       </c>
       <c r="S15">
-        <v>8.169780121422164E-06</v>
+        <v>9.099211167378815E-05</v>
       </c>
       <c r="T15">
-        <v>1.224906715705221E-05</v>
+        <v>0.0001012082440027677</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.09497266666666666</v>
+        <v>1.160603</v>
       </c>
       <c r="H16">
-        <v>0.284918</v>
+        <v>2.321206</v>
       </c>
       <c r="I16">
-        <v>0.07488775759767681</v>
+        <v>0.6368803588821972</v>
       </c>
       <c r="J16">
-        <v>0.09653266673871995</v>
+        <v>0.5854540813701385</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N16">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O16">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P16">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q16">
-        <v>9.223327538590887</v>
+        <v>83.21513103259767</v>
       </c>
       <c r="R16">
-        <v>83.00994784731799</v>
+        <v>499.290786195586</v>
       </c>
       <c r="S16">
-        <v>0.01293299049819466</v>
+        <v>0.1063461929981623</v>
       </c>
       <c r="T16">
-        <v>0.01939061600183285</v>
+        <v>0.1182862036250988</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.09497266666666666</v>
+        <v>1.160603</v>
       </c>
       <c r="H17">
-        <v>0.284918</v>
+        <v>2.321206</v>
       </c>
       <c r="I17">
-        <v>0.07488775759767681</v>
+        <v>0.6368803588821972</v>
       </c>
       <c r="J17">
-        <v>0.09653266673871995</v>
+        <v>0.5854540813701385</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N17">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O17">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P17">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q17">
-        <v>0.143265602858</v>
+        <v>3.8191899087835</v>
       </c>
       <c r="R17">
-        <v>0.8595936171480001</v>
+        <v>15.276759635134</v>
       </c>
       <c r="S17">
-        <v>0.0002008876593320807</v>
+        <v>0.004880798745326993</v>
       </c>
       <c r="T17">
-        <v>0.0002007958103816822</v>
+        <v>0.003619193365657837</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.09497266666666666</v>
+        <v>1.160603</v>
       </c>
       <c r="H18">
-        <v>0.284918</v>
+        <v>2.321206</v>
       </c>
       <c r="I18">
-        <v>0.07488775759767681</v>
+        <v>0.6368803588821972</v>
       </c>
       <c r="J18">
-        <v>0.09653266673871995</v>
+        <v>0.5854540813701385</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N18">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O18">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P18">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q18">
-        <v>15.16173304298955</v>
+        <v>32.041177874462</v>
       </c>
       <c r="R18">
-        <v>136.455597386906</v>
+        <v>192.247067246772</v>
       </c>
       <c r="S18">
-        <v>0.02125984885180663</v>
+        <v>0.04094756859532179</v>
       </c>
       <c r="T18">
-        <v>0.03187519277926747</v>
+        <v>0.04554495370513762</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,25 +1588,25 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.09497266666666666</v>
+        <v>1.160603</v>
       </c>
       <c r="H19">
-        <v>0.284918</v>
+        <v>2.321206</v>
       </c>
       <c r="I19">
-        <v>0.07488775759767681</v>
+        <v>0.6368803588821972</v>
       </c>
       <c r="J19">
-        <v>0.09653266673871995</v>
+        <v>0.5854540813701385</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N19">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O19">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P19">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q19">
-        <v>6.544781889665555</v>
+        <v>123.576412612723</v>
       </c>
       <c r="R19">
-        <v>58.90303700699</v>
+        <v>741.4584756763381</v>
       </c>
       <c r="S19">
-        <v>0.009177121991780933</v>
+        <v>0.1579265797296545</v>
       </c>
       <c r="T19">
-        <v>0.01375938910412405</v>
+        <v>0.1756577743035909</v>
       </c>
     </row>
   </sheetData>
